--- a/idea/wu/2015-5-22-需求规格说明书.xlsx
+++ b/idea/wu/2015-5-22-需求规格说明书.xlsx
@@ -1,28 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>想做的事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>打算怎么做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备使用什么技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要与其他方面进行什么交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于hadoop的一个数据应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体怎么做 还没有大致的思路 应该是有个SSH的网站 然后在往里面嵌入不同的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struts spring hibernate hadoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果嵌入视频的话 需要与使用JNI调用本地的共享库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,19 +146,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +451,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>